--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3828.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3828.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.162702834332942</v>
+        <v>3.706082582473755</v>
       </c>
       <c r="B1">
-        <v>1.462340920757363</v>
+        <v>3.494296789169312</v>
       </c>
       <c r="C1">
-        <v>2.117384668103658</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>5.12928107848443</v>
+        <v>3.353888750076294</v>
       </c>
       <c r="E1">
-        <v>3.197797652563739</v>
+        <v>2.839561223983765</v>
       </c>
     </row>
   </sheetData>
